--- a/HamRadio/CRYSTAL_FILTERS/Docs/CrystalFilter9MHz.xlsx
+++ b/HamRadio/CRYSTAL_FILTERS/Docs/CrystalFilter9MHz.xlsx
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
-  <si>
-    <t xml:space="preserve">9 MHz XTAL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t xml:space="preserve">Number</t>
   </si>
@@ -126,6 +123,9 @@
     <t xml:space="preserve">32</t>
   </si>
   <si>
+    <t xml:space="preserve">SSB4</t>
+  </si>
+  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deviation</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -214,8 +220,8 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="8">
@@ -323,14 +329,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,19 +341,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,13 +462,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A2:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.35"/>
@@ -471,540 +477,539 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.62"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <f aca="false">AVERAGE(B3:B52)</f>
-        <v>8.99779866</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <f aca="false">AVERAGE(D3:D52)</f>
-        <v>36.3399999999814</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="3" t="n">
         <v>8.997668</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <f aca="false">1000000*(B3-$B$1)</f>
+      <c r="C3" s="4" t="n">
+        <f aca="false">1000000*(B3-$B$53)</f>
         <v>-130.659999998173</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="4" t="n">
         <f aca="false">ABS(C3)</f>
         <v>130.659999998173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>8.997704</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <f aca="false">1000000*(B4-$B$1)</f>
+      <c r="C4" s="6" t="n">
+        <f aca="false">1000000*(B4-$B$53)</f>
         <v>-94.6599999984699</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="7" t="n">
         <f aca="false">ABS(C4)</f>
         <v>94.6599999984699</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>8.997707</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <f aca="false">1000000*(B5-$B$1)</f>
+      <c r="C5" s="6" t="n">
+        <f aca="false">1000000*(B5-$B$53)</f>
         <v>-91.6599999989387</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="7" t="n">
         <f aca="false">ABS(C5)</f>
         <v>91.6599999989387</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>8.997707</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <f aca="false">1000000*(B6-$B$1)</f>
+      <c r="C6" s="6" t="n">
+        <f aca="false">1000000*(B6-$B$53)</f>
         <v>-91.6599999989387</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="7" t="n">
         <f aca="false">ABS(C6)</f>
         <v>91.6599999989387</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="n">
         <v>8.997726</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <f aca="false">1000000*(B7-$B$1)</f>
+      <c r="C7" s="6" t="n">
+        <f aca="false">1000000*(B7-$B$53)</f>
         <v>-72.6599999989475</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="7" t="n">
         <f aca="false">ABS(C7)</f>
         <v>72.6599999989475</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="n">
         <v>8.997733</v>
       </c>
-      <c r="C8" s="7" t="n">
-        <f aca="false">1000000*(B8-$B$1)</f>
+      <c r="C8" s="6" t="n">
+        <f aca="false">1000000*(B8-$B$53)</f>
         <v>-65.6599999988572</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="7" t="n">
         <f aca="false">ABS(C8)</f>
         <v>65.6599999988572</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <v>8.997742</v>
       </c>
-      <c r="C9" s="7" t="n">
-        <f aca="false">1000000*(B9-$B$1)</f>
+      <c r="C9" s="6" t="n">
+        <f aca="false">1000000*(B9-$B$53)</f>
         <v>-56.6599999984874</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="7" t="n">
         <f aca="false">ABS(C9)</f>
         <v>56.6599999984874</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <v>8.997753</v>
       </c>
-      <c r="C10" s="7" t="n">
-        <f aca="false">1000000*(B10-$B$1)</f>
+      <c r="C10" s="6" t="n">
+        <f aca="false">1000000*(B10-$B$53)</f>
         <v>-45.6599999996143</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="7" t="n">
         <f aca="false">ABS(C10)</f>
         <v>45.6599999996143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="n">
         <v>8.997755</v>
       </c>
-      <c r="C11" s="7" t="n">
-        <f aca="false">1000000*(B11-$B$1)</f>
+      <c r="C11" s="6" t="n">
+        <f aca="false">1000000*(B11-$B$53)</f>
         <v>-43.6599999993348</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="7" t="n">
         <f aca="false">ABS(C11)</f>
         <v>43.6599999993348</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="n">
         <v>8.997761</v>
       </c>
-      <c r="C12" s="7" t="n">
-        <f aca="false">1000000*(B12-$B$1)</f>
+      <c r="C12" s="6" t="n">
+        <f aca="false">1000000*(B12-$B$53)</f>
         <v>-37.6599999984961</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="7" t="n">
         <f aca="false">ABS(C12)</f>
         <v>37.6599999984961</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="n">
         <v>8.997767</v>
       </c>
-      <c r="C13" s="7" t="n">
-        <f aca="false">1000000*(B13-$B$1)</f>
+      <c r="C13" s="6" t="n">
+        <f aca="false">1000000*(B13-$B$53)</f>
         <v>-31.6599999994338</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="7" t="n">
         <f aca="false">ABS(C13)</f>
         <v>31.6599999994338</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="n">
         <v>8.997776</v>
       </c>
-      <c r="C14" s="7" t="n">
-        <f aca="false">1000000*(B14-$B$1)</f>
+      <c r="C14" s="6" t="n">
+        <f aca="false">1000000*(B14-$B$53)</f>
         <v>-22.659999999064</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="7" t="n">
         <f aca="false">ABS(C14)</f>
         <v>22.659999999064</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="n">
         <v>8.997782</v>
       </c>
-      <c r="C15" s="7" t="n">
-        <f aca="false">1000000*(B15-$B$1)</f>
+      <c r="C15" s="6" t="n">
+        <f aca="false">1000000*(B15-$B$53)</f>
         <v>-16.6599999982253</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="7" t="n">
         <f aca="false">ABS(C15)</f>
         <v>16.6599999982253</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>18</v>
+      <c r="E15" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5" t="n">
         <v>8.997783</v>
       </c>
-      <c r="C16" s="7" t="n">
-        <f aca="false">1000000*(B16-$B$1)</f>
+      <c r="C16" s="6" t="n">
+        <f aca="false">1000000*(B16-$B$53)</f>
         <v>-15.6599999989737</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="7" t="n">
         <f aca="false">ABS(C16)</f>
         <v>15.6599999989737</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>18</v>
+      <c r="E16" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="n">
         <v>8.997784</v>
       </c>
-      <c r="C17" s="7" t="n">
-        <f aca="false">1000000*(B17-$B$1)</f>
+      <c r="C17" s="6" t="n">
+        <f aca="false">1000000*(B17-$B$53)</f>
         <v>-14.6599999997221</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="7" t="n">
         <f aca="false">ABS(C17)</f>
         <v>14.6599999997221</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>18</v>
+      <c r="E17" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5" t="n">
         <v>8.997784</v>
       </c>
-      <c r="C18" s="7" t="n">
-        <f aca="false">1000000*(B18-$B$1)</f>
+      <c r="C18" s="6" t="n">
+        <f aca="false">1000000*(B18-$B$53)</f>
         <v>-14.6599999997221</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="7" t="n">
         <f aca="false">ABS(C18)</f>
         <v>14.6599999997221</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>18</v>
+      <c r="E18" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B19" s="5" t="n">
         <v>8.997785</v>
       </c>
-      <c r="C19" s="7" t="n">
-        <f aca="false">1000000*(B19-$B$1)</f>
+      <c r="C19" s="6" t="n">
+        <f aca="false">1000000*(B19-$B$53)</f>
         <v>-13.6599999986942</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="7" t="n">
         <f aca="false">ABS(C19)</f>
         <v>13.6599999986942</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>18</v>
+      <c r="E19" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B20" s="5" t="n">
         <v>8.997788</v>
       </c>
-      <c r="C20" s="7" t="n">
-        <f aca="false">1000000*(B20-$B$1)</f>
+      <c r="C20" s="6" t="n">
+        <f aca="false">1000000*(B20-$B$53)</f>
         <v>-10.659999999163</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="7" t="n">
         <f aca="false">ABS(C20)</f>
         <v>10.659999999163</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B21" s="5" t="n">
         <v>8.997788</v>
       </c>
-      <c r="C21" s="7" t="n">
-        <f aca="false">1000000*(B21-$B$1)</f>
+      <c r="C21" s="6" t="n">
+        <f aca="false">1000000*(B21-$B$53)</f>
         <v>-10.659999999163</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="7" t="n">
         <f aca="false">ABS(C21)</f>
         <v>10.659999999163</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B22" s="5" t="n">
         <v>8.997791</v>
       </c>
-      <c r="C22" s="7" t="n">
-        <f aca="false">1000000*(B22-$B$1)</f>
+      <c r="C22" s="6" t="n">
+        <f aca="false">1000000*(B22-$B$53)</f>
         <v>-7.65999999963185</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="7" t="n">
         <f aca="false">ABS(C22)</f>
         <v>7.65999999963185</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5" t="n">
         <v>8.997791</v>
       </c>
-      <c r="C23" s="7" t="n">
-        <f aca="false">1000000*(B23-$B$1)</f>
+      <c r="C23" s="6" t="n">
+        <f aca="false">1000000*(B23-$B$53)</f>
         <v>-7.65999999963185</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="7" t="n">
         <f aca="false">ABS(C23)</f>
         <v>7.65999999963185</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5" t="n">
         <v>8.997793</v>
       </c>
-      <c r="C24" s="7" t="n">
-        <f aca="false">1000000*(B24-$B$1)</f>
+      <c r="C24" s="6" t="n">
+        <f aca="false">1000000*(B24-$B$53)</f>
         <v>-5.65999999935229</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="7" t="n">
         <f aca="false">ABS(C24)</f>
         <v>5.65999999935229</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5" t="n">
         <v>8.997794</v>
       </c>
-      <c r="C25" s="7" t="n">
-        <f aca="false">1000000*(B25-$B$1)</f>
+      <c r="C25" s="6" t="n">
+        <f aca="false">1000000*(B25-$B$53)</f>
         <v>-4.65999999832434</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="7" t="n">
         <f aca="false">ABS(C25)</f>
         <v>4.65999999832434</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5" t="n">
         <v>8.997798</v>
       </c>
-      <c r="C26" s="7" t="n">
-        <f aca="false">1000000*(B26-$B$1)</f>
+      <c r="C26" s="6" t="n">
+        <f aca="false">1000000*(B26-$B$53)</f>
         <v>-0.659999999541583</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="7" t="n">
         <f aca="false">ABS(C26)</f>
         <v>0.659999999541583</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B27" s="5" t="n">
         <v>8.997798</v>
       </c>
-      <c r="C27" s="7" t="n">
-        <f aca="false">1000000*(B27-$B$1)</f>
+      <c r="C27" s="6" t="n">
+        <f aca="false">1000000*(B27-$B$53)</f>
         <v>-0.659999999541583</v>
       </c>
-      <c r="D27" s="8" t="n">
+      <c r="D27" s="7" t="n">
         <f aca="false">ABS(C27)</f>
         <v>0.659999999541583</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B28" s="5" t="n">
         <v>8.9978</v>
       </c>
-      <c r="C28" s="7" t="n">
-        <f aca="false">1000000*(B28-$B$1)</f>
+      <c r="C28" s="6" t="n">
+        <f aca="false">1000000*(B28-$B$53)</f>
         <v>1.34000000073797</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28" s="7" t="n">
         <f aca="false">ABS(C28)</f>
         <v>1.34000000073797</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B29" s="5" t="n">
         <v>8.9978</v>
       </c>
-      <c r="C29" s="7" t="n">
-        <f aca="false">1000000*(B29-$B$1)</f>
+      <c r="C29" s="6" t="n">
+        <f aca="false">1000000*(B29-$B$53)</f>
         <v>1.34000000073797</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="7" t="n">
         <f aca="false">ABS(C29)</f>
         <v>1.34000000073797</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="5" t="n">
         <v>8.997801</v>
       </c>
-      <c r="C30" s="7" t="n">
-        <f aca="false">1000000*(B30-$B$1)</f>
+      <c r="C30" s="6" t="n">
+        <f aca="false">1000000*(B30-$B$53)</f>
         <v>2.34000000176593</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="7" t="n">
         <f aca="false">ABS(C30)</f>
         <v>2.34000000176593</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="5" t="n">
         <v>8.997802</v>
       </c>
-      <c r="C31" s="7" t="n">
-        <f aca="false">1000000*(B31-$B$1)</f>
+      <c r="C31" s="6" t="n">
+        <f aca="false">1000000*(B31-$B$53)</f>
         <v>3.34000000101753</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="7" t="n">
         <f aca="false">ABS(C31)</f>
         <v>3.34000000101753</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="5" t="n">
         <v>8.997803</v>
       </c>
-      <c r="C32" s="7" t="n">
-        <f aca="false">1000000*(B32-$B$1)</f>
+      <c r="C32" s="6" t="n">
+        <f aca="false">1000000*(B32-$B$53)</f>
         <v>4.34000000026913</v>
       </c>
-      <c r="D32" s="8" t="n">
+      <c r="D32" s="7" t="n">
         <f aca="false">ABS(C32)</f>
         <v>4.34000000026913</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="5" t="n">
         <v>8.997809</v>
       </c>
-      <c r="C33" s="7" t="n">
-        <f aca="false">1000000*(B33-$B$1)</f>
+      <c r="C33" s="6" t="n">
+        <f aca="false">1000000*(B33-$B$53)</f>
         <v>10.3400000011078</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="7" t="n">
         <f aca="false">ABS(C33)</f>
         <v>10.3400000011078</v>
       </c>
@@ -1013,14 +1018,14 @@
       <c r="A34" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="5" t="n">
         <v>8.99781</v>
       </c>
-      <c r="C34" s="7" t="n">
-        <f aca="false">1000000*(B34-$B$1)</f>
+      <c r="C34" s="6" t="n">
+        <f aca="false">1000000*(B34-$B$53)</f>
         <v>11.3400000003594</v>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34" s="7" t="n">
         <f aca="false">ABS(C34)</f>
         <v>11.3400000003594</v>
       </c>
@@ -1029,14 +1034,14 @@
       <c r="A35" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="5" t="n">
         <v>8.997812</v>
       </c>
-      <c r="C35" s="7" t="n">
-        <f aca="false">1000000*(B35-$B$1)</f>
+      <c r="C35" s="6" t="n">
+        <f aca="false">1000000*(B35-$B$53)</f>
         <v>13.340000000639</v>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35" s="7" t="n">
         <f aca="false">ABS(C35)</f>
         <v>13.340000000639</v>
       </c>
@@ -1045,14 +1050,14 @@
       <c r="A36" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="5" t="n">
         <v>8.997814</v>
       </c>
-      <c r="C36" s="7" t="n">
-        <f aca="false">1000000*(B36-$B$1)</f>
+      <c r="C36" s="6" t="n">
+        <f aca="false">1000000*(B36-$B$53)</f>
         <v>15.3400000009185</v>
       </c>
-      <c r="D36" s="8" t="n">
+      <c r="D36" s="7" t="n">
         <f aca="false">ABS(C36)</f>
         <v>15.3400000009185</v>
       </c>
@@ -1061,14 +1066,14 @@
       <c r="A37" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="5" t="n">
         <v>8.997818</v>
       </c>
-      <c r="C37" s="7" t="n">
-        <f aca="false">1000000*(B37-$B$1)</f>
+      <c r="C37" s="6" t="n">
+        <f aca="false">1000000*(B37-$B$53)</f>
         <v>19.3400000014776</v>
       </c>
-      <c r="D37" s="8" t="n">
+      <c r="D37" s="7" t="n">
         <f aca="false">ABS(C37)</f>
         <v>19.3400000014776</v>
       </c>
@@ -1077,14 +1082,14 @@
       <c r="A38" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="5" t="n">
         <v>8.997822</v>
       </c>
-      <c r="C38" s="7" t="n">
-        <f aca="false">1000000*(B38-$B$1)</f>
+      <c r="C38" s="6" t="n">
+        <f aca="false">1000000*(B38-$B$53)</f>
         <v>23.3400000002604</v>
       </c>
-      <c r="D38" s="8" t="n">
+      <c r="D38" s="7" t="n">
         <f aca="false">ABS(C38)</f>
         <v>23.3400000002604</v>
       </c>
@@ -1093,14 +1098,14 @@
       <c r="A39" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="5" t="n">
         <v>8.997825</v>
       </c>
-      <c r="C39" s="7" t="n">
-        <f aca="false">1000000*(B39-$B$1)</f>
+      <c r="C39" s="6" t="n">
+        <f aca="false">1000000*(B39-$B$53)</f>
         <v>26.3400000015679</v>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39" s="7" t="n">
         <f aca="false">ABS(C39)</f>
         <v>26.3400000015679</v>
       </c>
@@ -1109,18 +1114,18 @@
       <c r="A40" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="5" t="n">
         <v>8.997836</v>
       </c>
-      <c r="C40" s="7" t="n">
-        <f aca="false">1000000*(B40-$B$1)</f>
+      <c r="C40" s="6" t="n">
+        <f aca="false">1000000*(B40-$B$53)</f>
         <v>37.3400000004409</v>
       </c>
-      <c r="D40" s="8" t="n">
+      <c r="D40" s="7" t="n">
         <f aca="false">ABS(C40)</f>
         <v>37.3400000004409</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1128,18 +1133,18 @@
       <c r="A41" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="5" t="n">
         <v>8.997836</v>
       </c>
-      <c r="C41" s="7" t="n">
-        <f aca="false">1000000*(B41-$B$1)</f>
+      <c r="C41" s="6" t="n">
+        <f aca="false">1000000*(B41-$B$53)</f>
         <v>37.3400000004409</v>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41" s="7" t="n">
         <f aca="false">ABS(C41)</f>
         <v>37.3400000004409</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1147,18 +1152,18 @@
       <c r="A42" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="5" t="n">
         <v>8.997838</v>
       </c>
-      <c r="C42" s="7" t="n">
-        <f aca="false">1000000*(B42-$B$1)</f>
+      <c r="C42" s="6" t="n">
+        <f aca="false">1000000*(B42-$B$53)</f>
         <v>39.3400000007205</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="7" t="n">
         <f aca="false">ABS(C42)</f>
         <v>39.3400000007205</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1166,14 +1171,14 @@
       <c r="A43" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="5" t="n">
         <v>8.99784</v>
       </c>
-      <c r="C43" s="7" t="n">
-        <f aca="false">1000000*(B43-$B$1)</f>
+      <c r="C43" s="6" t="n">
+        <f aca="false">1000000*(B43-$B$53)</f>
         <v>41.340000001</v>
       </c>
-      <c r="D43" s="8" t="n">
+      <c r="D43" s="7" t="n">
         <f aca="false">ABS(C43)</f>
         <v>41.340000001</v>
       </c>
@@ -1182,14 +1187,14 @@
       <c r="A44" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="5" t="n">
         <v>8.99784</v>
       </c>
-      <c r="C44" s="7" t="n">
-        <f aca="false">1000000*(B44-$B$1)</f>
+      <c r="C44" s="6" t="n">
+        <f aca="false">1000000*(B44-$B$53)</f>
         <v>41.340000001</v>
       </c>
-      <c r="D44" s="8" t="n">
+      <c r="D44" s="7" t="n">
         <f aca="false">ABS(C44)</f>
         <v>41.340000001</v>
       </c>
@@ -1198,14 +1203,14 @@
       <c r="A45" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="5" t="n">
         <v>8.997846</v>
       </c>
-      <c r="C45" s="7" t="n">
-        <f aca="false">1000000*(B45-$B$1)</f>
+      <c r="C45" s="6" t="n">
+        <f aca="false">1000000*(B45-$B$53)</f>
         <v>47.3400000000623</v>
       </c>
-      <c r="D45" s="8" t="n">
+      <c r="D45" s="7" t="n">
         <f aca="false">ABS(C45)</f>
         <v>47.3400000000623</v>
       </c>
@@ -1214,14 +1219,14 @@
       <c r="A46" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="5" t="n">
         <v>8.997851</v>
       </c>
-      <c r="C46" s="7" t="n">
-        <f aca="false">1000000*(B46-$B$1)</f>
+      <c r="C46" s="6" t="n">
+        <f aca="false">1000000*(B46-$B$53)</f>
         <v>52.3400000016494</v>
       </c>
-      <c r="D46" s="8" t="n">
+      <c r="D46" s="7" t="n">
         <f aca="false">ABS(C46)</f>
         <v>52.3400000016494</v>
       </c>
@@ -1230,14 +1235,14 @@
       <c r="A47" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="5" t="n">
         <v>8.997858</v>
       </c>
-      <c r="C47" s="7" t="n">
-        <f aca="false">1000000*(B47-$B$1)</f>
+      <c r="C47" s="6" t="n">
+        <f aca="false">1000000*(B47-$B$53)</f>
         <v>59.3400000017397</v>
       </c>
-      <c r="D47" s="8" t="n">
+      <c r="D47" s="7" t="n">
         <f aca="false">ABS(C47)</f>
         <v>59.3400000017397</v>
       </c>
@@ -1246,14 +1251,14 @@
       <c r="A48" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="5" t="n">
         <v>8.997858</v>
       </c>
-      <c r="C48" s="7" t="n">
-        <f aca="false">1000000*(B48-$B$1)</f>
+      <c r="C48" s="6" t="n">
+        <f aca="false">1000000*(B48-$B$53)</f>
         <v>59.3400000017397</v>
       </c>
-      <c r="D48" s="8" t="n">
+      <c r="D48" s="7" t="n">
         <f aca="false">ABS(C48)</f>
         <v>59.3400000017397</v>
       </c>
@@ -1262,14 +1267,14 @@
       <c r="A49" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="5" t="n">
         <v>8.997868</v>
       </c>
-      <c r="C49" s="7" t="n">
-        <f aca="false">1000000*(B49-$B$1)</f>
+      <c r="C49" s="6" t="n">
+        <f aca="false">1000000*(B49-$B$53)</f>
         <v>69.3400000013611</v>
       </c>
-      <c r="D49" s="8" t="n">
+      <c r="D49" s="7" t="n">
         <f aca="false">ABS(C49)</f>
         <v>69.3400000013611</v>
       </c>
@@ -1278,14 +1283,14 @@
       <c r="A50" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="5" t="n">
         <v>8.997872</v>
       </c>
-      <c r="C50" s="7" t="n">
-        <f aca="false">1000000*(B50-$B$1)</f>
+      <c r="C50" s="6" t="n">
+        <f aca="false">1000000*(B50-$B$53)</f>
         <v>73.3400000001438</v>
       </c>
-      <c r="D50" s="8" t="n">
+      <c r="D50" s="7" t="n">
         <f aca="false">ABS(C50)</f>
         <v>73.3400000001438</v>
       </c>
@@ -1294,32 +1299,48 @@
       <c r="A51" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="5" t="n">
         <v>8.997879</v>
       </c>
-      <c r="C51" s="7" t="n">
-        <f aca="false">1000000*(B51-$B$1)</f>
+      <c r="C51" s="6" t="n">
+        <f aca="false">1000000*(B51-$B$53)</f>
         <v>80.3400000002341</v>
       </c>
-      <c r="D51" s="8" t="n">
+      <c r="D51" s="7" t="n">
         <f aca="false">ABS(C51)</f>
         <v>80.3400000002341</v>
       </c>
     </row>
-    <row r="52" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+    <row r="52" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="5" t="n">
+      <c r="B52" s="3" t="n">
         <v>8.997937</v>
       </c>
-      <c r="C52" s="6" t="n">
-        <f aca="false">1000000*(B52-$B$1)</f>
+      <c r="C52" s="4" t="n">
+        <f aca="false">1000000*(B52-$B$53)</f>
         <v>138.340000001236</v>
       </c>
-      <c r="D52" s="6" t="n">
+      <c r="D52" s="4" t="n">
         <f aca="false">ABS(C52)</f>
         <v>138.340000001236</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <f aca="false">AVERAGE(B3:B52)</f>
+        <v>8.99779866</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <f aca="false">AVERAGE(D3:D52)</f>
+        <v>36.3399999999814</v>
       </c>
     </row>
   </sheetData>
@@ -1480,28 +1501,28 @@
         <v>47</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1656,11 +1677,11 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="13" t="n">
         <v>3.3E-010</v>
@@ -1668,7 +1689,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" s="13" t="n">
         <v>9000000</v>
@@ -1676,7 +1697,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">1/(2*PI()*B3*B2)</f>
